--- a/HydroFPV_plants/InputFilesCreation/main/Data/LandValues.xlsx
+++ b/HydroFPV_plants/InputFilesCreation/main/Data/LandValues.xlsx
@@ -11,12 +11,8 @@
     <sheet name="Stats_ENB" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Fuels_EG" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Stats_EG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Fuels_ET" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Stats_ET" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Fuels_SD" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Stats_SD" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Fuels_SS" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Stats_SS" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Fuels_ETSDSS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Stats_ETSDSS" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,35 +446,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Biomass &amp; Waste</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Solar</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Hydro</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Hydro</t>
+          <t>Geothermal</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Geothermal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Nuclear</t>
         </is>
@@ -492,24 +483,21 @@
         <v>2.23896050453186</v>
       </c>
       <c r="C2" t="n">
-        <v>9.455236434936523</v>
+        <v>12.94583415985107</v>
       </c>
       <c r="D2" t="n">
-        <v>12.94583415985107</v>
+        <v>6.166691303253174</v>
       </c>
       <c r="E2" t="n">
-        <v>6.166691303253174</v>
+        <v>8.01395320892334</v>
       </c>
       <c r="F2" t="n">
-        <v>8.01395320892334</v>
+        <v>1.528576254844666</v>
       </c>
       <c r="G2" t="n">
-        <v>1.528576254844666</v>
+        <v>7.700696468353272</v>
       </c>
       <c r="H2" t="n">
-        <v>7.700696468353272</v>
-      </c>
-      <c r="I2" t="n">
         <v>5.904975414276124</v>
       </c>
     </row>
@@ -521,24 +509,21 @@
         <v>6.978882789611816</v>
       </c>
       <c r="C3" t="n">
-        <v>4.093516826629639</v>
+        <v>9.668768882751465</v>
       </c>
       <c r="D3" t="n">
-        <v>9.668768882751465</v>
+        <v>0.920204520225525</v>
       </c>
       <c r="E3" t="n">
-        <v>0.920204520225525</v>
+        <v>10.98480129241943</v>
       </c>
       <c r="F3" t="n">
-        <v>10.98480129241943</v>
+        <v>1.217271208763123</v>
       </c>
       <c r="G3" t="n">
-        <v>1.217271208763123</v>
-      </c>
-      <c r="H3" t="n">
         <v>3.106377840042114</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -548,24 +533,21 @@
         <v>6.044177055358888</v>
       </c>
       <c r="C4" t="n">
-        <v>8.847204208374023</v>
+        <v>7.437087059020996</v>
       </c>
       <c r="D4" t="n">
-        <v>7.437087059020996</v>
+        <v>8.112095832824709</v>
       </c>
       <c r="E4" t="n">
-        <v>8.112095832824709</v>
+        <v>6.682043552398682</v>
       </c>
       <c r="F4" t="n">
-        <v>6.682043552398682</v>
+        <v>10.98480129241943</v>
       </c>
       <c r="G4" t="n">
-        <v>10.98480129241943</v>
-      </c>
-      <c r="H4" t="n">
         <v>1.407862186431885</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,22 +557,19 @@
         <v>1.976270437240601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.837178409099579</v>
+        <v>9.211045265197754</v>
       </c>
       <c r="D5" t="n">
-        <v>9.211045265197754</v>
+        <v>3.903867721557617</v>
       </c>
       <c r="E5" t="n">
-        <v>3.903867721557617</v>
+        <v>5.405756950378418</v>
       </c>
       <c r="F5" t="n">
-        <v>5.405756950378418</v>
-      </c>
-      <c r="G5" t="n">
         <v>6.458121776580812</v>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +579,19 @@
         <v>8.157512664794922</v>
       </c>
       <c r="C6" t="n">
-        <v>10.94679546356201</v>
+        <v>8.260122299194336</v>
       </c>
       <c r="D6" t="n">
-        <v>8.260122299194336</v>
+        <v>7.809732913970948</v>
       </c>
       <c r="E6" t="n">
-        <v>7.809732913970948</v>
+        <v>3.50917911529541</v>
       </c>
       <c r="F6" t="n">
-        <v>3.50917911529541</v>
-      </c>
-      <c r="G6" t="n">
         <v>1.423812031745911</v>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,22 +601,19 @@
         <v>1.623050093650818</v>
       </c>
       <c r="C7" t="n">
-        <v>11.45719623565674</v>
+        <v>11.8924732208252</v>
       </c>
       <c r="D7" t="n">
-        <v>11.8924732208252</v>
+        <v>1.727904200553894</v>
       </c>
       <c r="E7" t="n">
-        <v>1.727904200553894</v>
+        <v>8.571141242980959</v>
       </c>
       <c r="F7" t="n">
-        <v>8.571141242980959</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.860853850841522</v>
       </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -650,20 +623,17 @@
         <v>4.868538856506348</v>
       </c>
       <c r="C8" t="n">
-        <v>6.61310863494873</v>
-      </c>
-      <c r="D8" t="n">
         <v>8.279492378234863</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>10.27231979370117</v>
+      </c>
       <c r="F8" t="n">
-        <v>10.27231979370117</v>
-      </c>
-      <c r="G8" t="n">
         <v>3.56096625328064</v>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -673,20 +643,17 @@
         <v>1.25569224357605</v>
       </c>
       <c r="C9" t="n">
-        <v>16.40647888183594</v>
-      </c>
-      <c r="D9" t="n">
         <v>8.898690223693848</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.277532130479813</v>
+      </c>
       <c r="F9" t="n">
-        <v>0.277532130479813</v>
-      </c>
-      <c r="G9" t="n">
         <v>2.185858488082886</v>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -696,20 +663,17 @@
         <v>7.844210147857666</v>
       </c>
       <c r="C10" t="n">
-        <v>7.940248489379884</v>
-      </c>
-      <c r="D10" t="n">
         <v>8.646632194519045</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>9.987663269042969</v>
+      </c>
       <c r="F10" t="n">
-        <v>9.987663269042969</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.188040405511856</v>
       </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -719,20 +683,17 @@
         <v>0.547870337963104</v>
       </c>
       <c r="C11" t="n">
-        <v>16.40647888183594</v>
-      </c>
-      <c r="D11" t="n">
         <v>0.931748449802399</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>2.37805438041687</v>
+      </c>
       <c r="F11" t="n">
-        <v>2.37805438041687</v>
-      </c>
-      <c r="G11" t="n">
         <v>1.815276503562927</v>
       </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -742,20 +703,17 @@
         <v>3.260205984115601</v>
       </c>
       <c r="C12" t="n">
-        <v>11.21189785003662</v>
-      </c>
-      <c r="D12" t="n">
         <v>8.676420211791992</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>8.642723083496094</v>
+      </c>
       <c r="F12" t="n">
-        <v>8.642723083496094</v>
-      </c>
-      <c r="G12" t="n">
         <v>1.14920437335968</v>
       </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -765,20 +723,17 @@
         <v>0.613962590694427</v>
       </c>
       <c r="C13" t="n">
-        <v>2.65406608581543</v>
-      </c>
-      <c r="D13" t="n">
         <v>7.773125171661378</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>8.204557418823242</v>
+      </c>
       <c r="F13" t="n">
-        <v>8.204557418823242</v>
-      </c>
-      <c r="G13" t="n">
         <v>1.953168272972107</v>
       </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -788,20 +743,17 @@
         <v>0.882933557033539</v>
       </c>
       <c r="C14" t="n">
-        <v>8.411646842956545</v>
-      </c>
-      <c r="D14" t="n">
         <v>16.40647888183594</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>22.67884635925293</v>
+      </c>
       <c r="F14" t="n">
-        <v>22.67884635925293</v>
-      </c>
-      <c r="G14" t="n">
         <v>0.774625599384308</v>
       </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -811,18 +763,15 @@
         <v>1.891343832015991</v>
       </c>
       <c r="C15" t="n">
-        <v>3.440262317657471</v>
-      </c>
-      <c r="D15" t="n">
         <v>10.94679546356201</v>
       </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
+      <c r="F15" t="n">
         <v>8.571141242980959</v>
       </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -832,18 +781,15 @@
         <v>8.112095832824709</v>
       </c>
       <c r="C16" t="n">
-        <v>7.79274606704712</v>
-      </c>
-      <c r="D16" t="n">
         <v>10.94126510620117</v>
       </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
+      <c r="F16" t="n">
         <v>2.495640516281128</v>
       </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -853,18 +799,15 @@
         <v>0.613962590694427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.292206406593323</v>
-      </c>
-      <c r="D17" t="n">
         <v>16.31467247009277</v>
       </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
+      <c r="F17" t="n">
         <v>0.938949406147003</v>
       </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -874,18 +817,15 @@
         <v>3.083911180496216</v>
       </c>
       <c r="C18" t="n">
-        <v>2.720045566558838</v>
-      </c>
-      <c r="D18" t="n">
         <v>8.10727596282959</v>
       </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
+      <c r="F18" t="n">
         <v>2.388828277587891</v>
       </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -895,18 +835,15 @@
         <v>5.475523948669434</v>
       </c>
       <c r="C19" t="n">
-        <v>11.8924732208252</v>
-      </c>
-      <c r="D19" t="n">
         <v>8.204557418823242</v>
       </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
+      <c r="F19" t="n">
         <v>2.922487020492554</v>
       </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -916,18 +853,15 @@
         <v>3.20067024230957</v>
       </c>
       <c r="C20" t="n">
-        <v>6.73240327835083</v>
-      </c>
-      <c r="D20" t="n">
         <v>8.898690223693848</v>
       </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
+      <c r="F20" t="n">
         <v>2.43498420715332</v>
       </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -937,18 +871,15 @@
         <v>4.093516826629639</v>
       </c>
       <c r="C21" t="n">
-        <v>1.615366339683533</v>
-      </c>
-      <c r="D21" t="n">
         <v>7.79274606704712</v>
       </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
+      <c r="F21" t="n">
         <v>1.529586911201477</v>
       </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -958,18 +889,15 @@
         <v>6.971906185150146</v>
       </c>
       <c r="C22" t="n">
-        <v>3.066340923309326</v>
-      </c>
-      <c r="D22" t="n">
         <v>7.79274606704712</v>
       </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
+      <c r="F22" t="n">
         <v>1.792232871055603</v>
       </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -979,18 +907,15 @@
         <v>0.188040405511856</v>
       </c>
       <c r="C23" t="n">
-        <v>8.28336238861084</v>
-      </c>
-      <c r="D23" t="n">
         <v>7.773125171661378</v>
       </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
+      <c r="F23" t="n">
         <v>3.161087274551392</v>
       </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,18 +925,15 @@
         <v>8.28336238861084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.229153349995613</v>
-      </c>
-      <c r="D24" t="n">
         <v>3.098040819168091</v>
       </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
+      <c r="F24" t="n">
         <v>1.433387756347656</v>
       </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1021,18 +943,15 @@
         <v>5.330813884735108</v>
       </c>
       <c r="C25" t="n">
-        <v>4.550023555755616</v>
-      </c>
-      <c r="D25" t="n">
         <v>8.656002044677734</v>
       </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
+      <c r="F25" t="n">
         <v>0.310807764530182</v>
       </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1042,18 +961,15 @@
         <v>2.880803108215332</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229153349995613</v>
-      </c>
-      <c r="D26" t="n">
         <v>15.66075611114502</v>
       </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
+      <c r="F26" t="n">
         <v>0.8971098661422729</v>
       </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1062,17 +978,16 @@
       <c r="B27" t="n">
         <v>8.592763900756836</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>5.826770782470704</v>
       </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
+      <c r="F27" t="n">
         <v>2.088627338409424</v>
       </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1081,17 +996,16 @@
       <c r="B28" t="n">
         <v>7.773125171661378</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>11.8924732208252</v>
       </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
+      <c r="F28" t="n">
         <v>2.277045726776123</v>
       </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1100,17 +1014,16 @@
       <c r="B29" t="n">
         <v>1.798002243041992</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>4.803464889526368</v>
       </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
+      <c r="F29" t="n">
         <v>3.717798948287964</v>
       </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1119,17 +1032,16 @@
       <c r="B30" t="n">
         <v>2.693309783935547</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
+      <c r="C30" t="n">
         <v>8.06157112121582</v>
       </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
+      <c r="F30" t="n">
         <v>7.576998233795166</v>
       </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1138,17 +1050,16 @@
       <c r="B31" t="n">
         <v>0.949895322322845</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>6.706753730773926</v>
       </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
+      <c r="F31" t="n">
         <v>2.082839012145996</v>
       </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1157,17 +1068,16 @@
       <c r="B32" t="n">
         <v>7.844210147857666</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>3.098040819168091</v>
       </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
+      <c r="F32" t="n">
         <v>3.066340923309326</v>
       </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1176,17 +1086,16 @@
       <c r="B33" t="n">
         <v>9.036870956420898</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>11.8924732208252</v>
       </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
+      <c r="F33" t="n">
         <v>1.602615475654602</v>
       </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1195,17 +1104,16 @@
       <c r="B34" t="n">
         <v>9.369148254394531</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>6.971906185150146</v>
       </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
+      <c r="F34" t="n">
         <v>2.341354370117188</v>
       </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1214,17 +1122,16 @@
       <c r="B35" t="n">
         <v>7.773125171661378</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>7.314297676086426</v>
       </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
+      <c r="F35" t="n">
         <v>2.999950885772705</v>
       </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1233,17 +1140,16 @@
       <c r="B36" t="n">
         <v>4.395761489868164</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
         <v>8.847204208374023</v>
       </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
+      <c r="F36" t="n">
         <v>2.471729040145874</v>
       </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1252,17 +1158,16 @@
       <c r="B37" t="n">
         <v>5.527621746063232</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
+      <c r="C37" t="n">
         <v>7.79274606704712</v>
       </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
+      <c r="F37" t="n">
         <v>1.271185874938965</v>
       </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1271,17 +1176,16 @@
       <c r="B38" t="n">
         <v>7.773125171661378</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>8.592763900756836</v>
       </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
+      <c r="F38" t="n">
         <v>10.98535823822022</v>
       </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1290,17 +1194,16 @@
       <c r="B39" t="n">
         <v>0.697176873683929</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>10.94679546356201</v>
       </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
+      <c r="F39" t="n">
         <v>7.459287643432618</v>
       </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1309,17 +1212,16 @@
       <c r="B40" t="n">
         <v>0.116517946124077</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
+      <c r="C40" t="n">
         <v>10.44501399993896</v>
       </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
+      <c r="F40" t="n">
         <v>6.704436779022218</v>
       </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1328,17 +1230,16 @@
       <c r="B41" t="n">
         <v>7.804280281066896</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
+      <c r="C41" t="n">
         <v>16.40647888183594</v>
       </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
+      <c r="F41" t="n">
         <v>6.818746089935304</v>
       </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1347,17 +1248,16 @@
       <c r="B42" t="n">
         <v>3.841237545013428</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>8.898690223693848</v>
       </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="n">
+      <c r="F42" t="n">
         <v>3.788936614990234</v>
       </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1366,17 +1266,16 @@
       <c r="B43" t="n">
         <v>0.570539116859436</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
         <v>6.642840385437012</v>
       </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="n">
+      <c r="F43" t="n">
         <v>1.864351630210876</v>
       </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1385,17 +1284,16 @@
       <c r="B44" t="n">
         <v>9.497829437255859</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
         <v>11.03344440460205</v>
       </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
+      <c r="F44" t="n">
         <v>0.938949406147003</v>
       </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1404,17 +1302,16 @@
       <c r="B45" t="n">
         <v>0.174300536513329</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
         <v>8.204557418823242</v>
       </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
+      <c r="F45" t="n">
         <v>2.922487020492554</v>
       </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1423,17 +1320,16 @@
       <c r="B46" t="n">
         <v>0.288007259368896</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>8.204557418823242</v>
       </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="n">
+      <c r="F46" t="n">
         <v>4.762732028961182</v>
       </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1442,17 +1338,16 @@
       <c r="B47" t="n">
         <v>7.953624725341798</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
         <v>16.40647888183594</v>
       </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="n">
+      <c r="F47" t="n">
         <v>1.589671969413757</v>
       </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1461,17 +1356,16 @@
       <c r="B48" t="n">
         <v>2.714625597000122</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>10.44501399993896</v>
       </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
+      <c r="F48" t="n">
         <v>2.167842388153076</v>
       </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1480,17 +1374,16 @@
       <c r="B49" t="n">
         <v>1.885509967803955</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>5.788173198699952</v>
       </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="n">
+      <c r="F49" t="n">
         <v>4.127894878387451</v>
       </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1499,17 +1392,16 @@
       <c r="B50" t="n">
         <v>1.1781907081604</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
         <v>8.411646842956545</v>
       </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
+      <c r="F50" t="n">
         <v>3.161087274551392</v>
       </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1518,17 +1410,16 @@
       <c r="B51" t="n">
         <v>6.682043552398682</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>11.21189785003662</v>
       </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
+      <c r="F51" t="n">
         <v>3.161087274551392</v>
       </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1537,17 +1428,16 @@
       <c r="B52" t="n">
         <v>0.955972671508789</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
         <v>8.676420211791992</v>
       </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
+      <c r="F52" t="n">
         <v>0.310807764530182</v>
       </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1556,17 +1446,16 @@
       <c r="B53" t="n">
         <v>5.41160821914673</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="n">
+      <c r="C53" t="n">
         <v>5.788173198699952</v>
       </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
+      <c r="F53" t="n">
         <v>3.717798948287964</v>
       </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1575,17 +1464,16 @@
       <c r="B54" t="n">
         <v>2.252179384231567</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>8.592763900756836</v>
       </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="n">
+      <c r="F54" t="n">
         <v>2.082839012145996</v>
       </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1594,17 +1482,16 @@
       <c r="B55" t="n">
         <v>7.844210147857666</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>11.8924732208252</v>
       </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
+      <c r="F55" t="n">
         <v>3.066340923309326</v>
       </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1613,15 +1500,14 @@
       <c r="B56" t="n">
         <v>7.79274606704712</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>7.79274606704712</v>
       </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1636,7 +1522,6 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1651,7 +1536,6 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1666,7 +1550,6 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1681,7 +1564,6 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1696,7 +1578,6 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1711,7 +1592,6 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1726,7 +1606,6 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1741,7 +1620,6 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1756,7 +1634,6 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1771,7 +1648,6 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1786,7 +1662,6 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1801,7 +1676,6 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1816,7 +1690,6 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1831,7 +1704,6 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1846,7 +1718,6 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1861,7 +1732,6 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1876,7 +1746,6 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1891,7 +1760,6 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1906,7 +1774,6 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1921,7 +1788,6 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1936,7 +1802,6 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1951,7 +1816,6 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1966,7 +1830,6 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1981,7 +1844,6 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1996,7 +1858,6 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2011,7 +1872,6 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2026,7 +1886,6 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2041,7 +1900,6 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2056,7 +1914,6 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2071,7 +1928,6 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2086,7 +1942,6 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2101,7 +1956,6 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2116,7 +1970,6 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2131,7 +1984,6 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2146,7 +1998,6 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2161,7 +2012,6 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2176,7 +2026,6 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2191,7 +2040,6 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2206,7 +2054,6 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2221,7 +2068,6 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2236,7 +2082,6 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2251,7 +2096,6 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2266,7 +2110,6 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2281,7 +2124,6 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2296,7 +2138,6 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2311,7 +2152,6 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2326,7 +2166,6 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2341,7 +2180,6 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2356,7 +2194,6 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2371,7 +2208,6 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2386,7 +2222,6 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2401,7 +2236,6 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2416,7 +2250,6 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2431,7 +2264,6 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2446,7 +2278,6 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2461,7 +2292,6 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2476,7 +2306,6 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2491,7 +2320,6 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2506,7 +2334,6 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2521,7 +2348,6 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2536,7 +2362,6 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2551,7 +2376,6 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2566,7 +2390,6 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2581,182 +2404,6 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Biomass &amp; Waste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Hydro</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Geothermal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Nuclear</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.304532298445702</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>0.8789818584918975</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.492703706026077</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0.860853850841522</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5.330813884735108</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>0.8971098661422729</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.940959960222244</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>0.8789818584918975</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>First quantile</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.82441084086895</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>0.8699178546667097</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Third quantile</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.009785383939743</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>0.8880458623170853</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3016,7 +2663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3032,35 +2679,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Biomass &amp; Waste</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Solar</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Hydro</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Hydro</t>
+          <t>Geothermal</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Geothermal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Nuclear</t>
         </is>
@@ -3074,22 +2716,21 @@
         <v>6.978882789611816</v>
       </c>
       <c r="C2" t="n">
-        <v>9.455236434936523</v>
+        <v>12.94583415985107</v>
       </c>
       <c r="D2" t="n">
-        <v>12.94583415985107</v>
+        <v>7.809732913970948</v>
       </c>
       <c r="E2" t="n">
-        <v>7.809732913970948</v>
+        <v>8.01395320892334</v>
       </c>
       <c r="F2" t="n">
-        <v>8.01395320892334</v>
+        <v>10.98480129241943</v>
       </c>
       <c r="G2" t="n">
-        <v>10.98480129241943</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
+        <v>7.700696468353272</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.904975414276124</v>
       </c>
     </row>
@@ -3101,20 +2742,19 @@
         <v>8.157512664794922</v>
       </c>
       <c r="C3" t="n">
-        <v>8.847204208374023</v>
-      </c>
-      <c r="D3" t="n">
         <v>9.668768882751465</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>10.98480129241943</v>
+      </c>
       <c r="F3" t="n">
-        <v>10.98480129241943</v>
+        <v>8.571141242980959</v>
       </c>
       <c r="G3" t="n">
-        <v>8.571141242980959</v>
+        <v>3.106377840042114</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3124,20 +2764,19 @@
         <v>7.844210147857666</v>
       </c>
       <c r="C4" t="n">
-        <v>10.94679546356201</v>
-      </c>
-      <c r="D4" t="n">
         <v>7.437087059020996</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>6.682043552398682</v>
+      </c>
       <c r="F4" t="n">
-        <v>6.682043552398682</v>
+        <v>2.495640516281128</v>
       </c>
       <c r="G4" t="n">
-        <v>2.495640516281128</v>
+        <v>1.407862186431885</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3147,20 +2786,17 @@
         <v>0.882933557033539</v>
       </c>
       <c r="C5" t="n">
-        <v>11.45719623565674</v>
-      </c>
-      <c r="D5" t="n">
         <v>9.211045265197754</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3.50917911529541</v>
+      </c>
       <c r="F5" t="n">
-        <v>3.50917911529541</v>
-      </c>
-      <c r="G5" t="n">
         <v>7.576998233795166</v>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3170,20 +2806,17 @@
         <v>6.971906185150146</v>
       </c>
       <c r="C6" t="n">
-        <v>6.61310863494873</v>
-      </c>
-      <c r="D6" t="n">
         <v>8.260122299194336</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>8.571141242980959</v>
+      </c>
       <c r="F6" t="n">
-        <v>8.571141242980959</v>
-      </c>
-      <c r="G6" t="n">
         <v>10.98535823822022</v>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -3193,20 +2826,17 @@
         <v>8.592763900756836</v>
       </c>
       <c r="C7" t="n">
-        <v>16.40647888183594</v>
-      </c>
-      <c r="D7" t="n">
         <v>11.8924732208252</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>10.27231979370117</v>
+      </c>
       <c r="F7" t="n">
-        <v>10.27231979370117</v>
-      </c>
-      <c r="G7" t="n">
         <v>7.459287643432618</v>
       </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3216,20 +2846,17 @@
         <v>7.773125171661378</v>
       </c>
       <c r="C8" t="n">
-        <v>7.940248489379884</v>
-      </c>
-      <c r="D8" t="n">
         <v>8.279492378234863</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.277532130479813</v>
+      </c>
       <c r="F8" t="n">
-        <v>0.277532130479813</v>
-      </c>
-      <c r="G8" t="n">
         <v>6.704436779022218</v>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3239,20 +2866,17 @@
         <v>7.844210147857666</v>
       </c>
       <c r="C9" t="n">
-        <v>16.40647888183594</v>
-      </c>
-      <c r="D9" t="n">
         <v>8.898690223693848</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>9.987663269042969</v>
+      </c>
       <c r="F9" t="n">
-        <v>9.987663269042969</v>
-      </c>
-      <c r="G9" t="n">
         <v>6.818746089935304</v>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3262,18 +2886,15 @@
         <v>9.036870956420898</v>
       </c>
       <c r="C10" t="n">
-        <v>11.21189785003662</v>
-      </c>
-      <c r="D10" t="n">
         <v>8.646632194519045</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
         <v>8.642723083496094</v>
       </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3283,18 +2904,15 @@
         <v>9.369148254394531</v>
       </c>
       <c r="C11" t="n">
-        <v>8.411646842956545</v>
-      </c>
-      <c r="D11" t="n">
         <v>8.676420211791992</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>8.204557418823242</v>
       </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -3304,18 +2922,15 @@
         <v>7.773125171661378</v>
       </c>
       <c r="C12" t="n">
-        <v>7.79274606704712</v>
-      </c>
-      <c r="D12" t="n">
         <v>7.773125171661378</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
         <v>22.67884635925293</v>
       </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -3325,16 +2940,13 @@
         <v>7.773125171661378</v>
       </c>
       <c r="C13" t="n">
-        <v>11.8924732208252</v>
-      </c>
-      <c r="D13" t="n">
         <v>16.40647888183594</v>
       </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -3344,16 +2956,13 @@
         <v>7.804280281066896</v>
       </c>
       <c r="C14" t="n">
-        <v>6.73240327835083</v>
-      </c>
-      <c r="D14" t="n">
         <v>10.94679546356201</v>
       </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3362,15 +2971,14 @@
       <c r="B15" t="n">
         <v>9.497829437255859</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>10.94126510620117</v>
       </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3379,15 +2987,14 @@
       <c r="B16" t="n">
         <v>7.953624725341798</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>16.31467247009277</v>
       </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3396,15 +3003,14 @@
       <c r="B17" t="n">
         <v>6.682043552398682</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>8.10727596282959</v>
       </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3413,15 +3019,14 @@
       <c r="B18" t="n">
         <v>7.844210147857666</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>8.204557418823242</v>
       </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3430,15 +3035,14 @@
       <c r="B19" t="n">
         <v>7.79274606704712</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>8.898690223693848</v>
       </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3447,15 +3051,14 @@
       <c r="B20" t="n">
         <v>11.06393241882324</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>7.79274606704712</v>
       </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3464,15 +3067,14 @@
       <c r="B21" t="n">
         <v>7.83387327194214</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>7.79274606704712</v>
       </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3481,15 +3083,14 @@
       <c r="B22" t="n">
         <v>1.272903442382813</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>7.773125171661378</v>
       </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3498,15 +3099,14 @@
       <c r="B23" t="n">
         <v>7.773125171661378</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>3.098040819168091</v>
       </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3515,15 +3115,14 @@
       <c r="B24" t="n">
         <v>6.971906185150146</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>8.656002044677734</v>
       </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3532,15 +3131,14 @@
       <c r="B25" t="n">
         <v>10.25084114074707</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>15.66075611114502</v>
       </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3549,15 +3147,14 @@
       <c r="B26" t="n">
         <v>6.767853736877442</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>5.826770782470704</v>
       </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3566,15 +3163,14 @@
       <c r="B27" t="n">
         <v>0.941101312637329</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>11.8924732208252</v>
       </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3583,15 +3179,14 @@
       <c r="B28" t="n">
         <v>7.79274606704712</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>4.803464889526368</v>
       </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3600,15 +3195,14 @@
       <c r="B29" t="n">
         <v>22.67884635925293</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>8.06157112121582</v>
       </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3617,15 +3211,14 @@
       <c r="B30" t="n">
         <v>6.817154407501222</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
+      <c r="C30" t="n">
         <v>6.706753730773926</v>
       </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3634,15 +3227,14 @@
       <c r="B31" t="n">
         <v>11.8924732208252</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>3.098040819168091</v>
       </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3651,15 +3243,14 @@
       <c r="B32" t="n">
         <v>11.8924732208252</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>11.8924732208252</v>
       </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3668,15 +3259,14 @@
       <c r="B33" t="n">
         <v>10.9058256149292</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>6.971906185150146</v>
       </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3685,15 +3275,14 @@
       <c r="B34" t="n">
         <v>6.942134380340576</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>7.314297676086426</v>
       </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3702,15 +3291,14 @@
       <c r="B35" t="n">
         <v>9.35908031463623</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>8.847204208374023</v>
       </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3719,15 +3307,14 @@
       <c r="B36" t="n">
         <v>6.971906185150146</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
         <v>7.79274606704712</v>
       </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3736,285 +3323,266 @@
       <c r="B37" t="n">
         <v>6.942134380340576</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
+      <c r="C37" t="n">
         <v>8.592763900756836</v>
       </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>10.94679546356201</v>
       </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>10.44501399993896</v>
       </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
+      <c r="C40" t="n">
         <v>16.40647888183594</v>
       </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
+      <c r="C41" t="n">
         <v>8.898690223693848</v>
       </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>6.642840385437012</v>
       </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
         <v>11.03344440460205</v>
       </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
         <v>8.204557418823242</v>
       </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
         <v>8.204557418823242</v>
       </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>16.40647888183594</v>
       </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
         <v>10.44501399993896</v>
       </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>5.788173198699952</v>
       </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>8.411646842956545</v>
       </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
         <v>11.21189785003662</v>
       </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>8.676420211791992</v>
       </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
         <v>5.788173198699952</v>
       </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="n">
+      <c r="C53" t="n">
         <v>8.592763900756836</v>
       </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>11.8924732208252</v>
       </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>7.79274606704712</v>
       </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4101,7 +3669,9 @@
       <c r="G2" t="n">
         <v>7.69955125451088</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>4.071645498275757</v>
+      </c>
       <c r="I2" t="n">
         <v>5.904975414276124</v>
       </c>
@@ -4130,7 +3700,9 @@
       <c r="G3" t="n">
         <v>2.495640516281128</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1.407862186431885</v>
+      </c>
       <c r="I3" t="n">
         <v>5.904975414276124</v>
       </c>
@@ -4159,7 +3731,9 @@
       <c r="G4" t="n">
         <v>10.98535823822022</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>7.700696468353272</v>
+      </c>
       <c r="I4" t="n">
         <v>5.904975414276124</v>
       </c>
@@ -4188,7 +3762,9 @@
       <c r="G5" t="n">
         <v>7.518142938613892</v>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>3.106377840042114</v>
+      </c>
       <c r="I5" t="n">
         <v>5.904975414276124</v>
       </c>
@@ -4217,7 +3793,9 @@
       <c r="G6" t="n">
         <v>6.790168762207032</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>2.257120013237</v>
+      </c>
       <c r="I6" t="n">
         <v>5.904975414276124</v>
       </c>
@@ -4246,7 +3824,9 @@
       <c r="G7" t="n">
         <v>9.174556255340578</v>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>5.403537154197693</v>
+      </c>
       <c r="I7" t="n">
         <v>5.904975414276124</v>
       </c>
@@ -4262,7 +3842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4278,35 +3858,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Biomass &amp; Waste</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Solar</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Hydro</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Hydro</t>
+          <t>Geothermal</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Geothermal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Nuclear</t>
         </is>
@@ -4320,631 +3895,1275 @@
         <v>2.23896050453186</v>
       </c>
       <c r="C2" t="n">
-        <v>0.837178409099579</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.931748449802399</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.166691303253174</v>
+      </c>
       <c r="E2" t="n">
-        <v>6.166691303253174</v>
+        <v>5.405756950378418</v>
       </c>
       <c r="F2" t="n">
-        <v>5.405756950378418</v>
+        <v>1.528576254844666</v>
       </c>
       <c r="G2" t="n">
-        <v>1.528576254844666</v>
+        <v>7.700696468353272</v>
       </c>
       <c r="H2" t="n">
-        <v>7.700696468353272</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>5.904975414276124</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.623050093650818</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.65406608581543</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>6.044177055358888</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.920204520225525</v>
+      </c>
       <c r="E3" t="n">
-        <v>0.920204520225525</v>
+        <v>2.37805438041687</v>
       </c>
       <c r="F3" t="n">
-        <v>2.37805438041687</v>
+        <v>1.217271208763123</v>
       </c>
       <c r="G3" t="n">
-        <v>1.217271208763123</v>
-      </c>
-      <c r="H3" t="n">
         <v>3.106377840042114</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.868538856506348</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.720045566558838</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
+        <v>1.976270437240601</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
         <v>8.112095832824709</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>6.458121776580812</v>
+      </c>
       <c r="G4" t="n">
-        <v>6.458121776580812</v>
-      </c>
-      <c r="H4" t="n">
         <v>1.407862186431885</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.25569224357605</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.615366339683533</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
+        <v>1.623050093650818</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
         <v>3.903867721557617</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
         <v>1.423812031745911</v>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.891343832015991</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.28336238861084</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
+        <v>4.868538856506348</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
         <v>1.727904200553894</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>3.56096625328064</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.860853850841522</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.112095832824709</v>
+        <v>1.25569224357605</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>2.185858488082886</v>
-      </c>
+      <c r="F7" t="n">
+        <v>3.56096625328064</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.475523948669434</v>
+        <v>0.547870337963104</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>1.815276503562927</v>
-      </c>
+      <c r="F8" t="n">
+        <v>2.185858488082886</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.20067024230957</v>
+        <v>3.260205984115601</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>1.14920437335968</v>
-      </c>
+      <c r="F9" t="n">
+        <v>0.188040405511856</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.28336238861084</v>
+        <v>0.613962590694427</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>1.953168272972107</v>
-      </c>
+      <c r="F10" t="n">
+        <v>1.815276503562927</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.880803108215332</v>
+        <v>1.891343832015991</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>0.774625599384308</v>
-      </c>
+      <c r="F11" t="n">
+        <v>1.14920437335968</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.798002243041992</v>
+        <v>8.112095832824709</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>0.938949406147003</v>
-      </c>
+      <c r="F12" t="n">
+        <v>1.953168272972107</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.693309783935547</v>
+        <v>0.613962590694427</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>2.388828277587891</v>
-      </c>
+      <c r="F13" t="n">
+        <v>0.774625599384308</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.527621746063232</v>
+        <v>3.083911180496216</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>2.922487020492554</v>
-      </c>
+      <c r="F14" t="n">
+        <v>0.938949406147003</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.714625597000122</v>
+        <v>5.475523948669434</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>2.43498420715332</v>
-      </c>
+      <c r="F15" t="n">
+        <v>2.388828277587891</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.885509967803955</v>
+        <v>3.20067024230957</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>1.529586911201477</v>
-      </c>
+      <c r="F16" t="n">
+        <v>2.922487020492554</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.1781907081604</v>
+        <v>4.093516826629639</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>1.792232871055603</v>
-      </c>
+      <c r="F17" t="n">
+        <v>2.43498420715332</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.41160821914673</v>
+        <v>0.188040405511856</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>1.433387756347656</v>
-      </c>
+      <c r="F18" t="n">
+        <v>1.529586911201477</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.252179384231567</v>
+        <v>8.28336238861084</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>2.088627338409424</v>
-      </c>
+      <c r="F19" t="n">
+        <v>1.792232871055603</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.956994771957397</v>
+        <v>5.330813884735108</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>2.277045726776123</v>
-      </c>
+      <c r="F20" t="n">
+        <v>3.161087274551392</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.035214781761169</v>
+        <v>2.880803108215332</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>1.602615475654602</v>
-      </c>
+      <c r="F21" t="n">
+        <v>1.433387756347656</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.935235381126404</v>
+        <v>1.798002243041992</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>2.341354370117188</v>
-      </c>
+      <c r="F22" t="n">
+        <v>0.310807764530182</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.912219762802124</v>
+        <v>2.693309783935547</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
-        <v>2.999950885772705</v>
-      </c>
+      <c r="F23" t="n">
+        <v>0.8971098661422729</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.240835309028625</v>
+        <v>0.949895322322845</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>2.471729040145874</v>
-      </c>
+      <c r="F24" t="n">
+        <v>2.088627338409424</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.903867721557617</v>
+        <v>4.395761489868164</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
-        <v>1.271185874938965</v>
-      </c>
+      <c r="F25" t="n">
+        <v>2.277045726776123</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.227816343307495</v>
+        <v>5.527621746063232</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>3.788936614990234</v>
-      </c>
+      <c r="F26" t="n">
+        <v>3.717798948287964</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.657914042472839</v>
+        <v>0.697176873683929</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
-        <v>1.864351630210876</v>
-      </c>
+      <c r="F27" t="n">
+        <v>2.082839012145996</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.989798307418823</v>
+        <v>0.116517946124077</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>0.938949406147003</v>
-      </c>
+      <c r="F28" t="n">
+        <v>3.066340923309326</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.331119775772095</v>
+        <v>3.841237545013428</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
-        <v>2.922487020492554</v>
-      </c>
+      <c r="F29" t="n">
+        <v>1.602615475654602</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.589565873146057</v>
+        <v>0.570539116859436</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
-        <v>4.762732028961182</v>
-      </c>
+      <c r="F30" t="n">
+        <v>2.341354370117188</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.017596006393433</v>
+        <v>0.174300536513329</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>1.589671969413757</v>
-      </c>
+      <c r="F31" t="n">
+        <v>2.999950885772705</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.424956679344177</v>
+        <v>0.288007259368896</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
-        <v>2.167842388153076</v>
-      </c>
+      <c r="F32" t="n">
+        <v>2.471729040145874</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.811822056770325</v>
+        <v>2.714625597000122</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
-        <v>4.127894878387451</v>
-      </c>
+      <c r="F33" t="n">
+        <v>1.271185874938965</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.265896558761597</v>
+        <v>1.885509967803955</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>3.788936614990234</v>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.642535209655762</v>
+        <v>1.1781907081604</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>1.864351630210876</v>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.836329936981201</v>
+        <v>0.955972671508789</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0.938949406147003</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.107358813285828</v>
+        <v>5.41160821914673</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>2.922487020492554</v>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.252179384231567</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>4.762732028961182</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.956994771957397</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>1.589671969413757</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.754726827144623</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>2.167842388153076</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.035214781761169</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>4.127894878387451</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.794810712337494</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>3.161087274551392</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.666850447654724</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>3.161087274551392</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.061939716339111</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>0.310807764530182</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.083911180496216</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>3.717798948287964</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.935235381126404</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>2.082839012145996</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.891130924224854</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>3.066340923309326</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.940546214580536</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.912219762802124</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.492703706026077</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.932024598121643</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.240835309028625</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.903867721557617</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.227816343307495</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.657914042472839</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.547870337963104</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.989798307418823</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.331119775772095</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.589565873146057</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.017596006393433</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.469288289546967</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.034205317497253</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.424956679344177</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.811822056770325</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.511651992797852</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.265896558761597</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.186682417988777</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.642535209655762</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.836329936981201</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.495935440063477</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.171248435974121</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.197389647364616</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.027722954750061</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.107358813285828</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.913211226463318</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6176714897155759</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.288007259368896</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.292206406593323</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.931748449802399</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.931748449802399</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.931748449802399</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.940546214580536</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.469288289546967</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.277532130479813</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5014,12 +5233,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.699393500884374</v>
+        <v>1.961140404982739</v>
       </c>
       <c r="C2" t="n">
-        <v>3.222003757953644</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>2.667556293308735</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.931748449802399</v>
+      </c>
       <c r="E2" t="n">
         <v>4.166152715682983</v>
       </c>
@@ -5027,12 +5248,14 @@
         <v>3.891905665397644</v>
       </c>
       <c r="G2" t="n">
-        <v>2.272584745660424</v>
+        <v>2.228425023996312</v>
       </c>
       <c r="H2" t="n">
         <v>4.071645498275757</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>5.904975414276124</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5041,12 +5264,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.017596006393433</v>
+        <v>0.116517946124077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.837178409099579</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>0.229153349995613</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.931748449802399</v>
+      </c>
       <c r="E3" t="n">
         <v>0.920204520225525</v>
       </c>
@@ -5054,12 +5279,14 @@
         <v>2.37805438041687</v>
       </c>
       <c r="G3" t="n">
-        <v>0.774625599384308</v>
+        <v>0.188040405511856</v>
       </c>
       <c r="H3" t="n">
         <v>1.407862186431885</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>5.904975414276124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5073,7 +5300,9 @@
       <c r="C4" t="n">
         <v>8.28336238861084</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0.931748449802399</v>
+      </c>
       <c r="E4" t="n">
         <v>8.112095832824709</v>
       </c>
@@ -5086,7 +5315,9 @@
       <c r="H4" t="n">
         <v>7.700696468353272</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>5.904975414276124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5095,12 +5326,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.962516844272614</v>
+        <v>1.424956679344177</v>
       </c>
       <c r="C5" t="n">
-        <v>2.65406608581543</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>2.687055826187134</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.931748449802399</v>
+      </c>
       <c r="E5" t="n">
         <v>3.903867721557617</v>
       </c>
@@ -5108,12 +5341,14 @@
         <v>3.891905665397644</v>
       </c>
       <c r="G5" t="n">
-        <v>2.020897805690765</v>
+        <v>2.08573317527771</v>
       </c>
       <c r="H5" t="n">
         <v>3.106377840042114</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>5.904975414276124</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5122,12 +5357,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.637663930654526</v>
+        <v>0.725951850414276</v>
       </c>
       <c r="C6" t="n">
-        <v>1.615366339683533</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>0.7009354084730149</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.931748449802399</v>
+      </c>
       <c r="E6" t="n">
         <v>1.727904200553894</v>
       </c>
@@ -5135,12 +5372,14 @@
         <v>3.134980022907257</v>
       </c>
       <c r="G6" t="n">
-        <v>1.504779130220413</v>
+        <v>1.426205962896347</v>
       </c>
       <c r="H6" t="n">
         <v>2.257120013237</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>5.904975414276124</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5149,12 +5388,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.899851024150848</v>
+        <v>2.703967690467834</v>
       </c>
       <c r="C7" t="n">
-        <v>2.720045566558838</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>3.603575944900513</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.931748449802399</v>
+      </c>
       <c r="E7" t="n">
         <v>6.166691303253174</v>
       </c>
@@ -5162,1082 +5403,14 @@
         <v>4.648831307888031</v>
       </c>
       <c r="G7" t="n">
-        <v>2.584418535232544</v>
+        <v>3.049743413925171</v>
       </c>
       <c r="H7" t="n">
         <v>5.403537154197693</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Biomass &amp; Waste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Hydro</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Geothermal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Nuclear</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6.044177055358888</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.093516826629639</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>0.188040405511856</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.976270437240601</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.440262317657471</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>3.161087274551392</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.547870337963104</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.292206406593323</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>0.310807764530182</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.260205984115601</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.066340923309326</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>3.717798948287964</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.613962590694427</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.229153349995613</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>2.082839012145996</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.083911180496216</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.550023555755616</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>3.066340923309326</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.093516826629639</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.229153349995613</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>3.161087274551392</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.188040405511856</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>3.161087274551392</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.395761489868164</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>0.310807764530182</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.697176873683929</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>3.717798948287964</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.116517946124077</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>2.082839012145996</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3.841237545013428</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>3.066340923309326</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.570539116859436</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.174300536513329</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.288007259368896</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.754726827144623</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.666850447654724</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2.061939716339111</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3.083911180496216</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.891130924224854</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.940546214580536</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.547870337963104</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.469288289546967</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3.511651992797852</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.186682417988777</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.495935440063477</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3.171248435974121</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.197389647364616</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.6176714897155759</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.288007259368896</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.292206406593323</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.940546214580536</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.469288289546967</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.277532130479813</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Biomass &amp; Waste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Hydro</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Geothermal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Nuclear</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.42030174587224</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.271522389990943</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>2.33557296047608</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.116517946124077</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.229153349995613</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0.188040405511856</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6.044177055358888</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.550023555755616</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>3.717798948287964</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.697176873683929</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.066340923309326</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>3.066340923309326</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>First quantile</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.469288289546967</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.260679878294468</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>1.639831200242043</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Third quantile</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2.061939716339111</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.766889572143555</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.931748449802399</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>3.161087274551392</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Biomass &amp; Waste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Solar</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Hydro</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Geothermal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Nuclear</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.613962590694427</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>0.860853850841522</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.330813884735108</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0.8971098661422729</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.949895322322845</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.955972671508789</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.794810712337494</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.492703706026077</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.932024598121643</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.034205317497253</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.027722954750061</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.913211226463318</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>5.904975414276124</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
